--- a/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Deer_GameFramework_HuaTuo\LubanTools\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubUnityProject\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A852AA-086A-434C-B0D8-8AC144E6542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="2088" yWindow="768" windowWidth="23040" windowHeight="12204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,13 +165,33 @@
   </si>
   <si>
     <t>Deer.Enum.AccessFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.Enum.CarMoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HORIZONTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERTICAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -737,6 +756,31 @@
         <v>37</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubUnityProject\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubFramework\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="768" windowWidth="23040" windowHeight="12204"/>
+    <workbookView xWindow="3480" yWindow="765" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deer.Enum.CarMoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HORIZONTAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +181,10 @@
   </si>
   <si>
     <t>垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.Enum.ECarDirectionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,21 +555,21 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="95.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -596,7 +596,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -665,7 +665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>23</v>
       </c>
@@ -679,7 +679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>26</v>
       </c>
@@ -693,7 +693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>29</v>
       </c>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>33</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>34</v>
       </c>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>35</v>
       </c>
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>36</v>
       </c>
@@ -756,29 +756,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>43</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
